--- a/biology/Botanique/Chrysonilia_sitophila/Chrysonilia_sitophila.xlsx
+++ b/biology/Botanique/Chrysonilia_sitophila/Chrysonilia_sitophila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chrysonilia sitophila est un champignon nommé aussi Monilia sitophila (obsolète) et, dans l'usage courant, « champignon rouge (ou orangé) du pain ». C'est une moisissure qui gâte divers aliments et est responsable d'asthme professionnel dans l'industrie du bois[1] et du liège[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysonilia sitophila est un champignon nommé aussi Monilia sitophila (obsolète) et, dans l'usage courant, « champignon rouge (ou orangé) du pain ». C'est une moisissure qui gâte divers aliments et est responsable d'asthme professionnel dans l'industrie du bois et du liège.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysonilia sitophila est le correspondant anamorphe de Neurospora sitophila (téléomorphe).
 Sa position dans la classification est :
-Sordariaceae, Sordariales, Sordariomycetidae, Sordariomycetes, Ascomycota, Fungi[3].
+Sordariaceae, Sordariales, Sordariomycetidae, Sordariomycetes, Ascomycota, Fungi.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'époque de sa découverte, en 1843, ce champignon fut nommé "Penicillium sitophilum" par Montagne et "Oïdium aurantiacum" par Léveillé[4], mais il est maintenant considéré comme n'appartenant à aucun des deux genres Oïdium et Penicillium.
-En 1848, Anselme Payen signala qu'il résistait à des températures supérieures à 100 degrés, fait qui joua un rôle dans les discussions sur la génération spontanée[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'époque de sa découverte, en 1843, ce champignon fut nommé "Penicillium sitophilum" par Montagne et "Oïdium aurantiacum" par Léveillé, mais il est maintenant considéré comme n'appartenant à aucun des deux genres Oïdium et Penicillium.
+En 1848, Anselme Payen signala qu'il résistait à des températures supérieures à 100 degrés, fait qui joua un rôle dans les discussions sur la génération spontanée.
 </t>
         </is>
       </c>
